--- a/《口袋医生》项目_测试用例.xlsx
+++ b/《口袋医生》项目_测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,23 +205,95 @@
     <t>点击注册按钮</t>
   </si>
   <si>
+    <t>使用不少于6位的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用少于6位的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与密码相同的确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与密码不同的确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入未被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击注册按钮2.成功跳转到登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击注册按钮2.出现提示信息：此手机号已经被注册3.不进行页面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点（Test Point）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件(Prerequisite)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例步骤(Case Step)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入值(Input)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果(Expected Result)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成功安装医生App.2.成功打开App，进入登录页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>使用未被注册过的手机号进行用户注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用不少于6位的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用少于6位的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用与密码相同的确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用与密码不同的确认密码</t>
+    <t>使用未被注册过的手机号进行用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用已经被注册过的手机号进行用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号没有被注册过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号没有被注册过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -233,11 +305,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击注册按钮</t>
+    <t>手机号已经被注册过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已经被注册过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入已经被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入已经被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经被注册过的手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,51 +333,166 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机号没有被注册过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号已经被注册过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入已经被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击注册按钮2.成功跳转到登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击注册按钮2.出现提示信息：此手机号已经被注册3.不进行页面的跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.成功安装医生App.2.成功打开App，进入登录页。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点（Test Point）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件(Prerequisite)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例步骤(Case Step)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入值(Input)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望结果(Expected Result)</t>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经输入被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用和手机号相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入和手机号相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和手机号相匹配的密码</t>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击登录按钮。2.出现提示信息：该用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击登录按钮2.不出现提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用和手机号不相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经输入被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入和手机号不相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和手机号不相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击登录按钮2.成功跳转到首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击登录按钮2.出现提示信息：用户名和密码不相符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的18位身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的18位身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的18位身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击确认按钮2.成功跳转到常用就诊人页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用错误的身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该身份证号存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该身份证号不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的11位手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的11位手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的11位手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击确认按钮2.出现提示信息：您的身份证号有误！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不出现提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用错误的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该手机号码不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该手机号码已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示信息：您输入的手机号码有误！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,11 +571,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -688,35 +897,35 @@
     <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>65</v>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -735,11 +944,11 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>63</v>
+      <c r="H2" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -758,13 +967,13 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -784,13 +993,13 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -807,13 +1016,13 @@
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -828,15 +1037,15 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -851,15 +1060,15 @@
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -874,15 +1083,15 @@
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -897,18 +1106,18 @@
         <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -920,22 +1129,22 @@
         <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -943,25 +1152,233 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>62</v>
+    </row>
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/《口袋医生》项目_测试用例.xlsx
+++ b/《口袋医生》项目_测试用例.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,473 +26,701 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>App安装测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App安装包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择口袋医生安装包进行安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在该手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在该手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用不正确的手机号注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入不正确的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不正确的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不出现提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示信息：请输入正确的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入少于6位的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入与密码不同的确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码已经输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的手机号注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入任何值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示信息：用户名不能为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在用户名注册框内不输入任何内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入不少于6位的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不少于6位的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少于6位的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与密码不同的确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入与密码相同的确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与密码相同的确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不出现提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示信息：密码不能少于6位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示信息：两次密码不相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击注册按钮</t>
+  </si>
+  <si>
+    <t>使用不少于6位的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用少于6位的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与密码相同的确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用与密码不同的确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入未被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击注册按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击注册按钮2.成功跳转到登录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击注册按钮2.出现提示信息：此手机号已经被注册3.不进行页面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点（Test Point）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件(Prerequisite)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例步骤(Case Step)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入值(Input)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果(Expected Result)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成功安装医生App.2.成功打开App，进入登录页。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用未被注册过的手机号进行用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用未被注册过的手机号进行用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用已经被注册过的手机号进行用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号没有被注册过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号没有被注册过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入未被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已经被注册过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已经被注册过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入已经被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入已经被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用已经被注册过的手机号进行用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经输入被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用和手机号相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入和手机号相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和手机号相匹配的密码</t>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击登录按钮。2.出现提示信息：该用户不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击登录按钮2.不出现提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用和手机号不相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经输入被注册过的手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入和手机号不相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和手机号不相匹配的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击登录按钮2.成功跳转到首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击登录按钮2.出现提示信息：用户名和密码不相符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的18位身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的18位身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的18位身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击确认按钮2.成功跳转到常用就诊人页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用错误的身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该身份证号存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该身份证号不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的11位手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确的11位手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的11位手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击确认按钮2.出现提示信息：您的身份证号有误！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不出现提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用错误的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该手机号码不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该手机号码已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示信息：您输入的手机号码有误！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用例名称（Case Name）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>App安装测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装App</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App安装包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择口袋医生安装包进行安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在该手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在该手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用不正确的手机号注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入不正确的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不正确的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不出现提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现提示信息：请输入正确的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入少于6位的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入与密码不同的确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码已经输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用正确的手机号注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不输入任何值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现提示信息：用户名不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在用户名注册框内不输入任何内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 输入不少于6位的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不少于6位的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少于6位的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与密码不同的确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入与密码相同的确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与密码相同的确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不出现提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现提示信息：密码不能少于6位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现提示信息：两次密码不相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击注册按钮</t>
-  </si>
-  <si>
-    <t>使用不少于6位的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用少于6位的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用与密码相同的确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用与密码不同的确认密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入未被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击注册按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击注册按钮2.成功跳转到登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击注册按钮2.出现提示信息：此手机号已经被注册3.不进行页面的跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点（Test Point）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件(Prerequisite)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例步骤(Case Step)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入值(Input)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望结果(Expected Result)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.成功安装医生App.2.成功打开App，进入登录页。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用未被注册过的手机号进行用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用未被注册过的手机号进行用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用已经被注册过的手机号进行用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号没有被注册过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号没有被注册过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入未被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号已经被注册过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号已经被注册过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入已经被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入已经被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用已经被注册过的手机号进行用户注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经输入被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用和手机号相匹配的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入和手机号相匹配的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和手机号相匹配的密码</t>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击登录按钮。2.出现提示信息：该用户不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击登录按钮2.不出现提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用和手机号不相匹配的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经输入被注册过的手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入和手机号不相匹配的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和手机号不相匹配的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击登录按钮2.成功跳转到首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击登录按钮2.出现提示信息：用户名和密码不相符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用正确的18位身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入正确的18位身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的18位身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击确认按钮2.成功跳转到常用就诊人页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用错误的身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该身份证号存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该身份证号不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入错误的身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入正确的11位手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用正确的11位手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的11位手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击确认按钮2.出现提示信息：您的身份证号有误！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不出现提示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用错误的手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该手机号码不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该手机号码已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入错误的手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现提示信息：您输入的手机号码有误！</t>
+    <t>点击快捷按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示快捷按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击各个按钮进去相应界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入相应界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约挂号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入选择医院列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击某一医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取相关医院的科室信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约挂号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择科室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择科室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入选择科室列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击某一科室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取科室的医生列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入选择医生列表页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击某一医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取医生详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约挂号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入预约挂号页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击提交预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示付款信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约挂号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约挂号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入付款界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择支付方式输入密码点击确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入咨询页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择性别年龄输入问题选择疾病类型，点击提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入年龄，输入问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看能否上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上传图片按钮，从文件中选择图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会诊室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题信息的更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入会诊室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题信息成功更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐热点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐热点的更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生成功回复后刷新界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新界面获取新的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的信息获取成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -897,7 +1125,7 @@
     <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="47.375" style="6" customWidth="1"/>
   </cols>
@@ -910,22 +1138,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -933,22 +1161,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -956,25 +1184,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -982,25 +1210,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1008,22 +1236,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1031,22 +1259,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1054,22 +1282,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1077,22 +1305,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1100,25 +1328,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1126,25 +1354,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1152,25 +1380,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1178,25 +1406,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1204,25 +1432,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1230,25 +1458,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1256,25 +1484,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1282,25 +1510,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1308,25 +1536,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1334,25 +1562,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -1360,25 +1588,274 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/《口袋医生》项目_测试用例.xlsx
+++ b/《口袋医生》项目_测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="213">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,18 +700,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推荐热点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐热点的更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进入知识库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医生成功回复后刷新界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,6 +713,158 @@
   </si>
   <si>
     <t>新的信息获取成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最新的医疗新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入知识库推荐页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入推荐页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新医疗新闻即时更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能否顺利播放视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入知识库视频模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能顺利播放视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放次数随之改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击视频，进入视频内容页面 2.播放次数加一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最新测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入测试模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉获取最新测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试问题更新成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频内容模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入视频详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.写评论2.点击发送按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论发送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">视频内容 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频内容模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好评论并发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论显示在评论区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻的浏览次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开新闻详情页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放次数随着点击次数的增加而增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览次数随着点击次数的增加而增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1112,25 +1256,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1179,7 +1323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1205,7 +1349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1231,7 +1375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1254,7 +1398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1277,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1300,7 +1444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1323,7 +1467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1349,7 +1493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1375,7 +1519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1401,7 +1545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1427,7 +1571,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1453,7 +1597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1479,7 +1623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1505,7 +1649,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1531,7 +1675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1557,7 +1701,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1583,7 +1727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1609,7 +1753,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1632,7 +1776,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1655,7 +1799,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1678,7 +1822,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1701,7 +1845,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1724,7 +1868,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1747,7 +1891,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1773,7 +1917,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1796,7 +1940,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1813,13 +1957,13 @@
         <v>167</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1827,35 +1971,171 @@
         <v>169</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="H29" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>170</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +2151,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1884,7 +2164,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/《口袋医生》项目_测试用例.xlsx
+++ b/《口袋医生》项目_测试用例.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="256">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,14 +865,194 @@
   </si>
   <si>
     <t>浏览次数随着点击次数的增加而增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病友帮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入到发布帖子页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写好帖子题目和帖子内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病友帮主页的消息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息展示是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入病友帮主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进入病友帮主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息展示都正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题与内容是否相符合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题与内容相符合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布帖子选择疾病类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入发布帖子页面，选择疾病类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入发布帖子页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬季感冒怎么办？
+冬季总是怕冷，爱感冒怎么办？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以正确选择疾病类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在没有登录的情况下不让发布，并且自动跳转到登陆页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布帖子可以上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入发布帖子页面，选择上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以上传图片到后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布帖子可以发布成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经登陆，并且进入发布帖子
+页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入发布帖子页面，选择好疾病类型，添加名字，
+添加描述，上传图片以后，点击发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示发布成功消息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">选择‘皮肤’
+起疙瘩了
+最近总是起疙瘩，红红的有点痒
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示帮内信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览过之后，浏览人数是否增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入病友帮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当浏览过一次以后，系统已经自动增加访客量，并且已经成功的刷新页面，显示出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论过之后，评论量增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经登陆，并且进入病友帮发布
+了一条评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入病友帮，选择一个帮进入，点开一条帖子，
+在帖子下面进行评论，提交评论，返回查看文章的评论是否增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应帮派文章的评论量已经增加</t>
+  </si>
+  <si>
+    <t>发布帖子之后，帖子数量增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经登陆，并且进入病友帮发
+布了一个帖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入病友帮，选择一个帮进入，点击发布帖子图标，提交帖子，返回查看帖子数量是否增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个文章写得很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应帮派文章的数量已经增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写完评论后，通过审核可以正确的发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经登陆，并且进入病友帮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论成功发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入病友帮进入病友帮，选择一个帮进入，点开一条帖子，在帖子下面进行评论，提交评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -955,6 +1135,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -970,7 +1153,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1044,7 +1227,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1079,7 +1261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1255,26 +1436,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1323,7 +1504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1349,7 +1530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1375,7 +1556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1398,7 +1579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1421,7 +1602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1444,7 +1625,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1467,7 +1648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1493,7 +1674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1519,7 +1700,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1545,7 +1726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1571,7 +1752,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1597,7 +1778,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1623,7 +1804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1649,7 +1830,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1675,7 +1856,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1701,7 +1882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1727,7 +1908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1753,7 +1934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1776,7 +1957,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1799,7 +1980,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1822,7 +2003,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1845,7 +2026,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1868,7 +2049,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1891,7 +2072,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1917,7 +2098,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1940,7 +2121,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1963,7 +2144,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1986,7 +2167,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2006,7 +2187,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2029,7 +2210,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2049,7 +2230,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2072,7 +2253,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2095,7 +2276,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2118,7 +2299,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2136,6 +2317,251 @@
       </c>
       <c r="H36" s="6" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="74.25" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="81" customHeight="1">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2146,12 +2572,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2159,12 +2585,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
